--- a/second-order/1878/June1878.xlsx
+++ b/second-order/1878/June1878.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catherine.ross\Desktop\2nd Order Stations\1878\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/second-order/1878/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15196" documentId="13_ncr:1_{E1D58761-601E-4F17-A0E8-3FFEAEF7A0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1CCA04F-E777-4F61-8B45-DB05BA08D349}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFEDEAD-9A81-F54E-B32B-98605AFFA766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="24" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="29040" windowHeight="15840" tabRatio="832" activeTab="1" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
   </bookViews>
   <sheets>
     <sheet name="Glenalmond" sheetId="15" r:id="rId1"/>
@@ -318,7 +318,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,6 +539,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -555,12 +561,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -581,9 +581,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -621,7 +621,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -727,7 +727,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -869,7 +869,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -879,53 +879,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4108655-B436-409A-BEA1-C15E2C901F28}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -990,7 +990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>1.5529999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>0.434</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>0.312</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>19</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>19</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -3019,60 +3019,60 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="M31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L23" sqref="L23"/>
       <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
-      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>60</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
@@ -3319,7 +3319,7 @@
       <c r="Q6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="19" t="s">
         <v>42</v>
       </c>
       <c r="S6" s="1">
@@ -3332,7 +3332,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>60</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -3443,7 +3443,7 @@
       <c r="O8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="24" t="s">
+      <c r="P8" s="18" t="s">
         <v>42</v>
       </c>
       <c r="Q8" s="1" t="s">
@@ -3462,7 +3462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>60</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>60</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>60</v>
       </c>
@@ -3644,7 +3644,7 @@
       <c r="Q11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R11" s="25" t="s">
+      <c r="R11" s="19" t="s">
         <v>43</v>
       </c>
       <c r="S11" s="1">
@@ -3657,7 +3657,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>60</v>
       </c>
@@ -3703,7 +3703,7 @@
       <c r="O12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P12" s="24" t="s">
+      <c r="P12" s="18" t="s">
         <v>62</v>
       </c>
       <c r="Q12" s="1" t="s">
@@ -3722,7 +3722,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>60</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>60</v>
       </c>
@@ -3833,7 +3833,7 @@
       <c r="O14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="24" t="s">
+      <c r="P14" s="18" t="s">
         <v>43</v>
       </c>
       <c r="Q14" s="1" t="s">
@@ -3852,7 +3852,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
@@ -3904,7 +3904,7 @@
       <c r="Q15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R15" s="25" t="s">
+      <c r="R15" s="19" t="s">
         <v>63</v>
       </c>
       <c r="S15" s="1">
@@ -3917,7 +3917,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>60</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>60</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>60</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>60</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>60</v>
       </c>
@@ -4223,7 +4223,7 @@
       <c r="O20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P20" s="24" t="s">
+      <c r="P20" s="18" t="s">
         <v>42</v>
       </c>
       <c r="Q20" s="1" t="s">
@@ -4242,7 +4242,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>60</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>60</v>
       </c>
@@ -4353,7 +4353,7 @@
       <c r="O22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P22" s="24" t="s">
+      <c r="P22" s="18" t="s">
         <v>42</v>
       </c>
       <c r="Q22" s="1" t="s">
@@ -4372,7 +4372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>60</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>60</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>60</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>60</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>60</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>60</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>60</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>60</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>60</v>
       </c>
@@ -5068,13 +5068,13 @@
       <c r="O33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P33" s="24" t="s">
+      <c r="P33" s="18" t="s">
         <v>43</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R33" s="25" t="s">
+      <c r="R33" s="19" t="s">
         <v>42</v>
       </c>
       <c r="S33" s="1">
@@ -5087,7 +5087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -5146,7 +5146,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -5186,49 +5186,49 @@
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>65</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>65</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>65</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>65</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>65</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>65</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>65</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>0.377</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>65</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>65</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>65</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>65</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>65</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>65</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>65</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>65</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>65</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>65</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>65</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>65</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>65</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>65</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>65</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>65</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>65</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>65</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>65</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -7324,49 +7324,49 @@
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>66</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>66</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>66</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>66</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>66</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>66</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>66</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>66</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>66</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>66</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>66</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>66</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>66</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>66</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>66</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>66</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>66</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>66</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>66</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>66</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>66</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>66</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>66</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>66</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>66</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>66</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>66</v>
       </c>
@@ -9381,7 +9381,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -9462,49 +9462,49 @@
       <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>67</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>67</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>67</v>
       </c>
@@ -9829,7 +9829,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>67</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>67</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>67</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>67</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>67</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>67</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>67</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>67</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>67</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>67</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>67</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>67</v>
       </c>
@@ -10804,7 +10804,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>67</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>67</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>67</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>67</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>67</v>
       </c>
@@ -11194,7 +11194,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>67</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>67</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>67</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>67</v>
       </c>
@@ -11454,7 +11454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>67</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -11598,60 +11598,60 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="H30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L23" sqref="L23"/>
       <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
-      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="18" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="25"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>68</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>68</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>68</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>68</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>68</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>68</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>68</v>
       </c>
@@ -12431,7 +12431,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>68</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -12561,7 +12561,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>68</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>68</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>68</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>68</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>68</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>68</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>68</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>68</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>68</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>68</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>68</v>
       </c>
@@ -13341,7 +13341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>68</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>68</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>68</v>
       </c>
@@ -13536,7 +13536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>68</v>
       </c>
@@ -13601,7 +13601,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>68</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -13725,7 +13725,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -13765,49 +13765,49 @@
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -13872,7 +13872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>69</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>69</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
@@ -14132,7 +14132,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>69</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>69</v>
       </c>
@@ -14262,7 +14262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>69</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>69</v>
       </c>
@@ -14392,7 +14392,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>69</v>
       </c>
@@ -14457,7 +14457,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>69</v>
       </c>
@@ -14522,7 +14522,7 @@
         <v>0.46200000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>69</v>
       </c>
@@ -14587,7 +14587,7 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>69</v>
       </c>
@@ -14652,7 +14652,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>69</v>
       </c>
@@ -14717,7 +14717,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
@@ -14782,7 +14782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>69</v>
       </c>
@@ -14847,7 +14847,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>69</v>
       </c>
@@ -14912,7 +14912,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>69</v>
       </c>
@@ -14977,7 +14977,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>69</v>
       </c>
@@ -15042,7 +15042,7 @@
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>69</v>
       </c>
@@ -15107,7 +15107,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>69</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>69</v>
       </c>
@@ -15237,7 +15237,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>69</v>
       </c>
@@ -15302,7 +15302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>69</v>
       </c>
@@ -15367,7 +15367,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>69</v>
       </c>
@@ -15432,7 +15432,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>69</v>
       </c>
@@ -15497,7 +15497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>69</v>
       </c>
@@ -15562,7 +15562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>69</v>
       </c>
@@ -15627,7 +15627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>69</v>
       </c>
@@ -15692,7 +15692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>69</v>
       </c>
@@ -15757,7 +15757,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>69</v>
       </c>
@@ -15822,7 +15822,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -15901,60 +15901,60 @@
   <dimension ref="A2:XFD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="K30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L23" sqref="L23"/>
       <selection pane="bottomLeft" activeCell="T35" sqref="T35"/>
-      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>70</v>
       </c>
@@ -16084,7 +16084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>70</v>
       </c>
@@ -16149,7 +16149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -16214,7 +16214,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -16279,7 +16279,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
@@ -16344,7 +16344,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>70</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>70</v>
       </c>
@@ -16539,7 +16539,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>70</v>
       </c>
@@ -16604,7 +16604,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>70</v>
       </c>
@@ -16650,7 +16650,7 @@
       <c r="O13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="24" t="s">
+      <c r="P13" s="18" t="s">
         <v>62</v>
       </c>
       <c r="Q13" s="1" t="s">
@@ -16669,7 +16669,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>70</v>
       </c>
@@ -16734,7 +16734,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>70</v>
       </c>
@@ -16799,7 +16799,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>70</v>
       </c>
@@ -16864,7 +16864,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>70</v>
       </c>
@@ -16929,7 +16929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>70</v>
       </c>
@@ -16994,7 +16994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>70</v>
       </c>
@@ -17059,7 +17059,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>70</v>
       </c>
@@ -17124,7 +17124,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>70</v>
       </c>
@@ -17189,7 +17189,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>70</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>70</v>
       </c>
@@ -17319,7 +17319,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>70</v>
       </c>
@@ -17384,7 +17384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>70</v>
       </c>
@@ -17449,7 +17449,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>70</v>
       </c>
@@ -17514,7 +17514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>70</v>
       </c>
@@ -17579,7 +17579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>70</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>70</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>70</v>
       </c>
@@ -17774,7 +17774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>70</v>
       </c>
@@ -17839,7 +17839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>70</v>
       </c>
@@ -17904,7 +17904,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21 16384:16384">
+    <row r="33" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>70</v>
       </c>
@@ -17969,7 +17969,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21 16384:16384">
+    <row r="34" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -18028,7 +18028,7 @@
         <v>1.339</v>
       </c>
     </row>
-    <row r="35" spans="1:21 16384:16384">
+    <row r="35" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -18069,49 +18069,49 @@
       <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -18176,7 +18176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>71</v>
       </c>
@@ -18241,7 +18241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -18306,7 +18306,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>71</v>
       </c>
@@ -18371,7 +18371,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>71</v>
       </c>
@@ -18436,7 +18436,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -18501,7 +18501,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -18566,7 +18566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -18631,7 +18631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>71</v>
       </c>
@@ -18696,7 +18696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>71</v>
       </c>
@@ -18761,7 +18761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>71</v>
       </c>
@@ -18826,7 +18826,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>71</v>
       </c>
@@ -18891,7 +18891,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>71</v>
       </c>
@@ -18956,7 +18956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>71</v>
       </c>
@@ -19021,7 +19021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
@@ -19086,7 +19086,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>71</v>
       </c>
@@ -19151,7 +19151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>71</v>
       </c>
@@ -19216,7 +19216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>71</v>
       </c>
@@ -19281,7 +19281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -19346,7 +19346,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>71</v>
       </c>
@@ -19411,7 +19411,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>71</v>
       </c>
@@ -19476,7 +19476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>71</v>
       </c>
@@ -19541,7 +19541,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>71</v>
       </c>
@@ -19606,7 +19606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>71</v>
       </c>
@@ -19671,7 +19671,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>71</v>
       </c>
@@ -19736,7 +19736,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>71</v>
       </c>
@@ -19801,7 +19801,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>71</v>
       </c>
@@ -19866,7 +19866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>71</v>
       </c>
@@ -19931,7 +19931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>71</v>
       </c>
@@ -19996,7 +19996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>71</v>
       </c>
@@ -20061,7 +20061,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>71</v>
       </c>
@@ -20126,7 +20126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -20207,49 +20207,49 @@
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -20314,7 +20314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>72</v>
       </c>
@@ -20379,7 +20379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>72</v>
       </c>
@@ -20444,7 +20444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -20509,7 +20509,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -20574,7 +20574,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>72</v>
       </c>
@@ -20639,7 +20639,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>72</v>
       </c>
@@ -20704,7 +20704,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -20769,7 +20769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
@@ -20834,7 +20834,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>72</v>
       </c>
@@ -20899,7 +20899,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>72</v>
       </c>
@@ -20964,7 +20964,7 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>72</v>
       </c>
@@ -21029,7 +21029,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
@@ -21094,7 +21094,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>72</v>
       </c>
@@ -21159,7 +21159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>72</v>
       </c>
@@ -21224,7 +21224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>72</v>
       </c>
@@ -21289,7 +21289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>72</v>
       </c>
@@ -21354,7 +21354,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>72</v>
       </c>
@@ -21419,7 +21419,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>72</v>
       </c>
@@ -21484,7 +21484,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>72</v>
       </c>
@@ -21549,7 +21549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>72</v>
       </c>
@@ -21614,7 +21614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>72</v>
       </c>
@@ -21679,7 +21679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>72</v>
       </c>
@@ -21744,7 +21744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>72</v>
       </c>
@@ -21809,7 +21809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>72</v>
       </c>
@@ -21874,7 +21874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>72</v>
       </c>
@@ -21939,7 +21939,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>72</v>
       </c>
@@ -22004,7 +22004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
@@ -22069,7 +22069,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>72</v>
       </c>
@@ -22134,7 +22134,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>72</v>
       </c>
@@ -22199,7 +22199,7 @@
         <v>0.42199999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>72</v>
       </c>
@@ -22264,7 +22264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -22345,49 +22345,49 @@
       <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -22452,7 +22452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -22517,7 +22517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>73</v>
       </c>
@@ -22582,7 +22582,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>73</v>
       </c>
@@ -22647,7 +22647,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>73</v>
       </c>
@@ -22712,7 +22712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>73</v>
       </c>
@@ -22777,7 +22777,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -22842,7 +22842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>73</v>
       </c>
@@ -22907,7 +22907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -22972,7 +22972,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>73</v>
       </c>
@@ -23037,7 +23037,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>73</v>
       </c>
@@ -23083,7 +23083,7 @@
       <c r="O13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="24" t="s">
+      <c r="P13" s="18" t="s">
         <v>74</v>
       </c>
       <c r="Q13" s="1" t="s">
@@ -23102,7 +23102,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>73</v>
       </c>
@@ -23167,7 +23167,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
@@ -23213,7 +23213,7 @@
       <c r="O15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="24" t="s">
+      <c r="P15" s="18" t="s">
         <v>74</v>
       </c>
       <c r="Q15" s="1" t="s">
@@ -23232,7 +23232,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>73</v>
       </c>
@@ -23297,7 +23297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>73</v>
       </c>
@@ -23362,7 +23362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>73</v>
       </c>
@@ -23427,7 +23427,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>73</v>
       </c>
@@ -23492,7 +23492,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>73</v>
       </c>
@@ -23557,7 +23557,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>73</v>
       </c>
@@ -23622,7 +23622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>73</v>
       </c>
@@ -23687,7 +23687,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
@@ -23752,7 +23752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>73</v>
       </c>
@@ -23817,7 +23817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>73</v>
       </c>
@@ -23882,7 +23882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>73</v>
       </c>
@@ -23947,7 +23947,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>73</v>
       </c>
@@ -24012,7 +24012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>73</v>
       </c>
@@ -24077,7 +24077,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>73</v>
       </c>
@@ -24142,7 +24142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>73</v>
       </c>
@@ -24207,7 +24207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>73</v>
       </c>
@@ -24272,7 +24272,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>73</v>
       </c>
@@ -24337,7 +24337,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>73</v>
       </c>
@@ -24402,7 +24402,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -24479,50 +24479,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB82F61C-05AA-4FA3-BD74-74225C388CDC}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="D29" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -24587,7 +24587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -24652,7 +24652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
@@ -24717,7 +24717,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -24782,7 +24782,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -24847,7 +24847,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -24912,7 +24912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -24977,7 +24977,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
@@ -25042,7 +25042,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -25107,7 +25107,7 @@
         <v>0.47799999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -25172,7 +25172,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -25237,7 +25237,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -25302,7 +25302,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -25367,7 +25367,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
@@ -25432,7 +25432,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
@@ -25497,7 +25497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
@@ -25562,7 +25562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -25627,7 +25627,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
@@ -25692,7 +25692,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>36</v>
       </c>
@@ -25757,7 +25757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>36</v>
       </c>
@@ -25822,7 +25822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
@@ -25836,7 +25836,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="5">
-        <v>2.5999999999999999E-2</v>
+        <v>30.026</v>
       </c>
       <c r="F23" s="6">
         <v>30.007999999999999</v>
@@ -25887,7 +25887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>36</v>
       </c>
@@ -25952,7 +25952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
@@ -26017,7 +26017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>36</v>
       </c>
@@ -26082,7 +26082,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>36</v>
       </c>
@@ -26147,7 +26147,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>36</v>
       </c>
@@ -26212,7 +26212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>36</v>
       </c>
@@ -26277,7 +26277,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>36</v>
       </c>
@@ -26342,7 +26342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>36</v>
       </c>
@@ -26407,7 +26407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
@@ -26472,7 +26472,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>36</v>
       </c>
@@ -26537,7 +26537,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -26616,60 +26616,60 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="I29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L23" sqref="L23"/>
       <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
-      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -26734,7 +26734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>76</v>
       </c>
@@ -26799,7 +26799,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>76</v>
       </c>
@@ -26864,7 +26864,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>76</v>
       </c>
@@ -26929,7 +26929,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -26994,7 +26994,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -27059,7 +27059,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>76</v>
       </c>
@@ -27124,7 +27124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>76</v>
       </c>
@@ -27189,7 +27189,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>76</v>
       </c>
@@ -27254,7 +27254,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>76</v>
       </c>
@@ -27319,7 +27319,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
@@ -27384,7 +27384,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -27449,7 +27449,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>76</v>
       </c>
@@ -27514,7 +27514,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>76</v>
       </c>
@@ -27579,7 +27579,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>76</v>
       </c>
@@ -27644,7 +27644,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>76</v>
       </c>
@@ -27709,7 +27709,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>76</v>
       </c>
@@ -27774,7 +27774,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>76</v>
       </c>
@@ -27839,7 +27839,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>76</v>
       </c>
@@ -27904,7 +27904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>76</v>
       </c>
@@ -27969,7 +27969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>76</v>
       </c>
@@ -28034,7 +28034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>76</v>
       </c>
@@ -28099,7 +28099,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>76</v>
       </c>
@@ -28164,7 +28164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -28229,7 +28229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>76</v>
       </c>
@@ -28294,7 +28294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>76</v>
       </c>
@@ -28359,7 +28359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>76</v>
       </c>
@@ -28424,7 +28424,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>76</v>
       </c>
@@ -28489,7 +28489,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>76</v>
       </c>
@@ -28554,7 +28554,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>76</v>
       </c>
@@ -28619,7 +28619,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>76</v>
       </c>
@@ -28684,7 +28684,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -28743,7 +28743,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -28783,49 +28783,49 @@
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -28890,7 +28890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>77</v>
       </c>
@@ -28955,7 +28955,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>77</v>
       </c>
@@ -29020,7 +29020,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>77</v>
       </c>
@@ -29085,7 +29085,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>77</v>
       </c>
@@ -29150,7 +29150,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -29215,7 +29215,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>77</v>
       </c>
@@ -29280,7 +29280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>77</v>
       </c>
@@ -29345,7 +29345,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>77</v>
       </c>
@@ -29410,7 +29410,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>77</v>
       </c>
@@ -29475,7 +29475,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>77</v>
       </c>
@@ -29540,7 +29540,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>77</v>
       </c>
@@ -29605,7 +29605,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -29670,7 +29670,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>77</v>
       </c>
@@ -29735,7 +29735,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>77</v>
       </c>
@@ -29800,7 +29800,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>77</v>
       </c>
@@ -29865,7 +29865,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>77</v>
       </c>
@@ -29930,7 +29930,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>77</v>
       </c>
@@ -29995,7 +29995,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>77</v>
       </c>
@@ -30060,7 +30060,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>77</v>
       </c>
@@ -30125,7 +30125,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>77</v>
       </c>
@@ -30190,7 +30190,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>77</v>
       </c>
@@ -30255,7 +30255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>77</v>
       </c>
@@ -30320,7 +30320,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>77</v>
       </c>
@@ -30385,7 +30385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -30450,7 +30450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>77</v>
       </c>
@@ -30515,7 +30515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>77</v>
       </c>
@@ -30580,7 +30580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>77</v>
       </c>
@@ -30645,7 +30645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>77</v>
       </c>
@@ -30710,7 +30710,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>77</v>
       </c>
@@ -30775,7 +30775,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>77</v>
       </c>
@@ -30840,7 +30840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -30921,49 +30921,49 @@
       <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -31028,7 +31028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -31093,7 +31093,7 @@
         <v>0.53200000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>78</v>
       </c>
@@ -31158,7 +31158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -31223,7 +31223,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>78</v>
       </c>
@@ -31288,7 +31288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>78</v>
       </c>
@@ -31353,7 +31353,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -31418,7 +31418,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>78</v>
       </c>
@@ -31483,7 +31483,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>78</v>
       </c>
@@ -31548,7 +31548,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>78</v>
       </c>
@@ -31613,7 +31613,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>78</v>
       </c>
@@ -31678,7 +31678,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>78</v>
       </c>
@@ -31743,7 +31743,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>78</v>
       </c>
@@ -31808,7 +31808,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -31873,7 +31873,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>78</v>
       </c>
@@ -31938,7 +31938,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>78</v>
       </c>
@@ -32003,7 +32003,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>78</v>
       </c>
@@ -32068,7 +32068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>78</v>
       </c>
@@ -32133,7 +32133,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>78</v>
       </c>
@@ -32198,7 +32198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>78</v>
       </c>
@@ -32263,7 +32263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>78</v>
       </c>
@@ -32328,7 +32328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>78</v>
       </c>
@@ -32393,7 +32393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>78</v>
       </c>
@@ -32458,7 +32458,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>78</v>
       </c>
@@ -32523,7 +32523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>78</v>
       </c>
@@ -32588,7 +32588,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>78</v>
       </c>
@@ -32653,7 +32653,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>78</v>
       </c>
@@ -32718,7 +32718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>78</v>
       </c>
@@ -32783,7 +32783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>78</v>
       </c>
@@ -32848,7 +32848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>78</v>
       </c>
@@ -32913,7 +32913,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>78</v>
       </c>
@@ -32978,7 +32978,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -33057,60 +33057,60 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="L30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L23" sqref="L23"/>
       <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
-      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -33175,7 +33175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
@@ -33240,7 +33240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>80</v>
       </c>
@@ -33305,7 +33305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>80</v>
       </c>
@@ -33370,7 +33370,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>80</v>
       </c>
@@ -33435,7 +33435,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>80</v>
       </c>
@@ -33500,7 +33500,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>80</v>
       </c>
@@ -33565,7 +33565,7 @@
         <v>0.30399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>80</v>
       </c>
@@ -33630,7 +33630,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -33695,7 +33695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>80</v>
       </c>
@@ -33760,7 +33760,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>80</v>
       </c>
@@ -33825,7 +33825,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>80</v>
       </c>
@@ -33890,7 +33890,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>80</v>
       </c>
@@ -33955,7 +33955,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>80</v>
       </c>
@@ -34020,7 +34020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>80</v>
       </c>
@@ -34085,7 +34085,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -34150,7 +34150,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>80</v>
       </c>
@@ -34215,7 +34215,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>80</v>
       </c>
@@ -34280,7 +34280,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>80</v>
       </c>
@@ -34345,7 +34345,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>80</v>
       </c>
@@ -34410,7 +34410,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>80</v>
       </c>
@@ -34475,7 +34475,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>80</v>
       </c>
@@ -34540,7 +34540,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>80</v>
       </c>
@@ -34605,7 +34605,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>80</v>
       </c>
@@ -34670,7 +34670,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>80</v>
       </c>
@@ -34735,7 +34735,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>80</v>
       </c>
@@ -34800,7 +34800,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>80</v>
       </c>
@@ -34865,7 +34865,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>80</v>
       </c>
@@ -34930,7 +34930,7 @@
         <v>1.266</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>80</v>
       </c>
@@ -34995,7 +34995,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>80</v>
       </c>
@@ -35060,7 +35060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>80</v>
       </c>
@@ -35125,7 +35125,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -35184,7 +35184,7 @@
         <v>4.6929999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -35224,46 +35224,46 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -35328,7 +35328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>81</v>
       </c>
@@ -35393,7 +35393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>81</v>
       </c>
@@ -35458,7 +35458,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>81</v>
       </c>
@@ -35523,7 +35523,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>81</v>
       </c>
@@ -35588,7 +35588,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>81</v>
       </c>
@@ -35653,7 +35653,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>81</v>
       </c>
@@ -35718,7 +35718,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>81</v>
       </c>
@@ -35783,7 +35783,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>81</v>
       </c>
@@ -35848,7 +35848,7 @@
         <v>0.498</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -35913,7 +35913,7 @@
         <v>0.317</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>81</v>
       </c>
@@ -35978,7 +35978,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>81</v>
       </c>
@@ -36043,7 +36043,7 @@
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>81</v>
       </c>
@@ -36108,7 +36108,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>81</v>
       </c>
@@ -36173,7 +36173,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>81</v>
       </c>
@@ -36238,7 +36238,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>81</v>
       </c>
@@ -36303,7 +36303,7 @@
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
@@ -36368,7 +36368,7 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>81</v>
       </c>
@@ -36433,7 +36433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>81</v>
       </c>
@@ -36498,7 +36498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>81</v>
       </c>
@@ -36563,7 +36563,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>81</v>
       </c>
@@ -36628,7 +36628,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>81</v>
       </c>
@@ -36693,7 +36693,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>81</v>
       </c>
@@ -36758,7 +36758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>81</v>
       </c>
@@ -36823,7 +36823,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>81</v>
       </c>
@@ -36888,7 +36888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>81</v>
       </c>
@@ -36953,7 +36953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>81</v>
       </c>
@@ -37018,7 +37018,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>81</v>
       </c>
@@ -37083,7 +37083,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>81</v>
       </c>
@@ -37148,7 +37148,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>81</v>
       </c>
@@ -37213,7 +37213,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>81</v>
       </c>
@@ -37278,7 +37278,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -37358,59 +37358,59 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L23" sqref="L23"/>
       <selection pane="bottomLeft" activeCell="X33" sqref="X33"/>
-      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -37475,7 +37475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>82</v>
       </c>
@@ -37540,7 +37540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>82</v>
       </c>
@@ -37605,7 +37605,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>82</v>
       </c>
@@ -37670,7 +37670,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>82</v>
       </c>
@@ -37735,7 +37735,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>82</v>
       </c>
@@ -37800,7 +37800,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>82</v>
       </c>
@@ -37865,7 +37865,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>82</v>
       </c>
@@ -37930,7 +37930,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>82</v>
       </c>
@@ -37995,7 +37995,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>82</v>
       </c>
@@ -38060,7 +38060,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -38125,7 +38125,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>82</v>
       </c>
@@ -38190,7 +38190,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>82</v>
       </c>
@@ -38255,7 +38255,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>82</v>
       </c>
@@ -38320,7 +38320,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>82</v>
       </c>
@@ -38385,7 +38385,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>82</v>
       </c>
@@ -38450,7 +38450,7 @@
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>82</v>
       </c>
@@ -38515,7 +38515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
@@ -38580,7 +38580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>82</v>
       </c>
@@ -38645,7 +38645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>82</v>
       </c>
@@ -38710,7 +38710,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>82</v>
       </c>
@@ -38775,7 +38775,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>82</v>
       </c>
@@ -38840,7 +38840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>82</v>
       </c>
@@ -38905,7 +38905,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>82</v>
       </c>
@@ -38970,7 +38970,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>82</v>
       </c>
@@ -39035,7 +39035,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>82</v>
       </c>
@@ -39100,7 +39100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>82</v>
       </c>
@@ -39165,7 +39165,7 @@
         <v>0.498</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>82</v>
       </c>
@@ -39230,7 +39230,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>82</v>
       </c>
@@ -39295,7 +39295,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -39360,7 +39360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>82</v>
       </c>
@@ -39425,7 +39425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -39484,7 +39484,7 @@
         <v>5.1669999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -39522,60 +39522,60 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="J30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L23" sqref="L23"/>
       <selection pane="bottomLeft" activeCell="O36" sqref="O36"/>
-      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -39640,7 +39640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
@@ -39705,7 +39705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
@@ -39770,7 +39770,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -39835,7 +39835,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
@@ -39900,7 +39900,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
@@ -39965,7 +39965,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
@@ -40030,7 +40030,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
@@ -40095,7 +40095,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -40160,7 +40160,7 @@
         <v>0.377</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
@@ -40225,7 +40225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
@@ -40290,7 +40290,7 @@
         <v>0.47299999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>41</v>
       </c>
@@ -40355,7 +40355,7 @@
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
@@ -40420,7 +40420,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
@@ -40485,7 +40485,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
@@ -40550,7 +40550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -40615,7 +40615,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>41</v>
       </c>
@@ -40667,7 +40667,7 @@
       <c r="Q19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R19" s="25" t="s">
+      <c r="R19" s="19" t="s">
         <v>42</v>
       </c>
       <c r="S19" s="1">
@@ -40680,7 +40680,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -40726,7 +40726,7 @@
       <c r="O20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P20" s="24" t="s">
+      <c r="P20" s="18" t="s">
         <v>43</v>
       </c>
       <c r="Q20" s="1" t="s">
@@ -40745,7 +40745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
@@ -40810,7 +40810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>41</v>
       </c>
@@ -40875,7 +40875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>41</v>
       </c>
@@ -40940,7 +40940,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>41</v>
       </c>
@@ -41005,7 +41005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>41</v>
       </c>
@@ -41070,7 +41070,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>41</v>
       </c>
@@ -41135,7 +41135,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>41</v>
       </c>
@@ -41200,7 +41200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>41</v>
       </c>
@@ -41265,7 +41265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>41</v>
       </c>
@@ -41330,7 +41330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>41</v>
       </c>
@@ -41395,7 +41395,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>41</v>
       </c>
@@ -41447,7 +41447,7 @@
       <c r="Q31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R31" s="25" t="s">
+      <c r="R31" s="19" t="s">
         <v>43</v>
       </c>
       <c r="S31" s="1">
@@ -41460,7 +41460,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>41</v>
       </c>
@@ -41525,7 +41525,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>41</v>
       </c>
@@ -41590,7 +41590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -41649,7 +41649,7 @@
         <v>2.6469999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -41689,49 +41689,49 @@
       <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -41796,7 +41796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
@@ -41861,7 +41861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
@@ -41926,7 +41926,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
@@ -41991,7 +41991,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
@@ -42056,7 +42056,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
@@ -42121,7 +42121,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
@@ -42186,7 +42186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -42251,7 +42251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -42316,7 +42316,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -42381,7 +42381,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
@@ -42446,7 +42446,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
@@ -42511,7 +42511,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
@@ -42576,7 +42576,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
@@ -42641,7 +42641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>44</v>
       </c>
@@ -42706,7 +42706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
@@ -42771,7 +42771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>44</v>
       </c>
@@ -42836,7 +42836,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
@@ -42901,7 +42901,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
@@ -42966,7 +42966,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
@@ -43031,7 +43031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
@@ -43096,7 +43096,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
@@ -43161,7 +43161,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>44</v>
       </c>
@@ -43226,7 +43226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>44</v>
       </c>
@@ -43291,7 +43291,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>44</v>
       </c>
@@ -43356,7 +43356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>44</v>
       </c>
@@ -43421,7 +43421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>44</v>
       </c>
@@ -43486,7 +43486,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>44</v>
       </c>
@@ -43551,7 +43551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>44</v>
       </c>
@@ -43616,7 +43616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>44</v>
       </c>
@@ -43681,7 +43681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>44</v>
       </c>
@@ -43746,7 +43746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -43825,60 +43825,60 @@
   <dimension ref="A2:XFD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="L31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L23" sqref="L23"/>
       <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
-      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -43943,7 +43943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
@@ -44008,7 +44008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>45</v>
       </c>
@@ -44073,7 +44073,7 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
@@ -44138,7 +44138,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
@@ -44203,7 +44203,7 @@
         <v>0.92300000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -44268,7 +44268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
@@ -44333,7 +44333,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>45</v>
       </c>
@@ -44398,7 +44398,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
@@ -44463,7 +44463,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -44528,7 +44528,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>45</v>
       </c>
@@ -44593,7 +44593,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
@@ -44658,7 +44658,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
@@ -44723,7 +44723,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
@@ -44788,7 +44788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -44853,7 +44853,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
@@ -44918,7 +44918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
@@ -44983,7 +44983,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
@@ -45048,7 +45048,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>45</v>
       </c>
@@ -45113,7 +45113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -45178,7 +45178,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
@@ -45243,7 +45243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
@@ -45308,7 +45308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>45</v>
       </c>
@@ -45373,7 +45373,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>45</v>
       </c>
@@ -45438,7 +45438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>45</v>
       </c>
@@ -45503,7 +45503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>45</v>
       </c>
@@ -45568,7 +45568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>45</v>
       </c>
@@ -45633,7 +45633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>45</v>
       </c>
@@ -45698,7 +45698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>45</v>
       </c>
@@ -45763,7 +45763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>45</v>
       </c>
@@ -45828,7 +45828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21 16384:16384">
+    <row r="33" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>45</v>
       </c>
@@ -45893,7 +45893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21 16384:16384">
+    <row r="34" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -45952,7 +45952,7 @@
         <v>2.3719999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:21 16384:16384">
+    <row r="35" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -45990,60 +45990,60 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="J31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L23" sqref="L23"/>
       <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
-      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -46108,7 +46108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
@@ -46173,7 +46173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>46</v>
       </c>
@@ -46238,7 +46238,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>46</v>
       </c>
@@ -46303,7 +46303,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>46</v>
       </c>
@@ -46368,7 +46368,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>46</v>
       </c>
@@ -46433,7 +46433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
@@ -46498,7 +46498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
@@ -46563,7 +46563,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>46</v>
       </c>
@@ -46628,7 +46628,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -46693,7 +46693,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -46758,7 +46758,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>46</v>
       </c>
@@ -46823,7 +46823,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
@@ -46888,7 +46888,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
@@ -46953,7 +46953,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
@@ -47018,7 +47018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
@@ -47083,7 +47083,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>46</v>
       </c>
@@ -47148,7 +47148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
@@ -47213,7 +47213,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
@@ -47278,7 +47278,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
@@ -47343,7 +47343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
@@ -47408,7 +47408,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
@@ -47473,7 +47473,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
@@ -47538,7 +47538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>46</v>
       </c>
@@ -47603,7 +47603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>46</v>
       </c>
@@ -47668,7 +47668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>46</v>
       </c>
@@ -47733,7 +47733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>46</v>
       </c>
@@ -47798,7 +47798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>46</v>
       </c>
@@ -47863,7 +47863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>46</v>
       </c>
@@ -47928,7 +47928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>46</v>
       </c>
@@ -47993,7 +47993,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
@@ -48058,7 +48058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -48117,7 +48117,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -48155,60 +48155,60 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="I31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L23" sqref="L23"/>
       <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
-      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -48273,7 +48273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -48338,7 +48338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>47</v>
       </c>
@@ -48403,7 +48403,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>47</v>
       </c>
@@ -48468,7 +48468,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -48533,7 +48533,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
@@ -48598,7 +48598,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -48663,7 +48663,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>47</v>
       </c>
@@ -48728,7 +48728,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
@@ -48793,7 +48793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>47</v>
       </c>
@@ -48858,7 +48858,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
@@ -48923,7 +48923,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -48988,7 +48988,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>47</v>
       </c>
@@ -49053,7 +49053,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
@@ -49118,7 +49118,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
@@ -49183,7 +49183,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -49248,7 +49248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
@@ -49313,7 +49313,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
@@ -49378,7 +49378,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
@@ -49443,7 +49443,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>47</v>
       </c>
@@ -49508,7 +49508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
@@ -49573,7 +49573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
@@ -49638,7 +49638,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
@@ -49703,7 +49703,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>47</v>
       </c>
@@ -49768,7 +49768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>47</v>
       </c>
@@ -49833,7 +49833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>47</v>
       </c>
@@ -49898,7 +49898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>47</v>
       </c>
@@ -49963,7 +49963,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>47</v>
       </c>
@@ -50028,7 +50028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>47</v>
       </c>
@@ -50093,7 +50093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>47</v>
       </c>
@@ -50158,7 +50158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>47</v>
       </c>
@@ -50223,7 +50223,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -50282,7 +50282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -50322,49 +50322,49 @@
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -50429,7 +50429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
@@ -50494,7 +50494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -50559,7 +50559,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>48</v>
       </c>
@@ -50624,7 +50624,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>48</v>
       </c>
@@ -50689,7 +50689,7 @@
         <v>0.498</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>48</v>
       </c>
@@ -50754,7 +50754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
@@ -50819,7 +50819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -50884,7 +50884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -50949,7 +50949,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -51014,7 +51014,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
@@ -51079,7 +51079,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -51144,7 +51144,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
@@ -51209,7 +51209,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>48</v>
       </c>
@@ -51274,7 +51274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
@@ -51339,7 +51339,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
@@ -51404,7 +51404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
@@ -51469,7 +51469,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
@@ -51534,7 +51534,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
@@ -51599,7 +51599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
@@ -51664,7 +51664,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
@@ -51729,7 +51729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>48</v>
       </c>
@@ -51794,7 +51794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -51859,7 +51859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
@@ -51924,7 +51924,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>48</v>
       </c>
@@ -51989,7 +51989,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>48</v>
       </c>
@@ -52054,7 +52054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>48</v>
       </c>
@@ -52119,7 +52119,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>48</v>
       </c>
@@ -52184,7 +52184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>48</v>
       </c>
@@ -52249,7 +52249,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>48</v>
       </c>
@@ -52314,7 +52314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>48</v>
       </c>
@@ -52379,7 +52379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -52460,49 +52460,49 @@
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="18" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="18" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -52567,7 +52567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
@@ -52632,7 +52632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
@@ -52697,7 +52697,7 @@
         <v>0.36899999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>49</v>
       </c>
@@ -52762,7 +52762,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -52827,7 +52827,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
@@ -52892,7 +52892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>49</v>
       </c>
@@ -52957,7 +52957,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>49</v>
       </c>
@@ -53022,7 +53022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -53087,7 +53087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
@@ -53152,7 +53152,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -53217,7 +53217,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>49</v>
       </c>
@@ -53282,7 +53282,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
@@ -53347,7 +53347,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>49</v>
       </c>
@@ -53412,7 +53412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
@@ -53477,7 +53477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
@@ -53542,7 +53542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -53607,7 +53607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
@@ -53672,7 +53672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
@@ -53737,7 +53737,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>49</v>
       </c>
@@ -53802,7 +53802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
@@ -53867,7 +53867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
@@ -53932,7 +53932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>49</v>
       </c>
@@ -53997,7 +53997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -54062,7 +54062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>49</v>
       </c>
@@ -54127,7 +54127,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>49</v>
       </c>
@@ -54192,7 +54192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>49</v>
       </c>
@@ -54257,7 +54257,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>49</v>
       </c>
@@ -54322,7 +54322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>49</v>
       </c>
@@ -54387,7 +54387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>49</v>
       </c>
@@ -54452,7 +54452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>49</v>
       </c>
@@ -54517,7 +54517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -54641,12 +54641,23 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Preview>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
+    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-35904</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
+      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-35904</Url>
+      <Description>H7Q62YT2XCZT-908671883-35904</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54957,37 +54968,60 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Preview>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
-    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-35904</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
-      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-35904</Url>
-      <Description>H7Q62YT2XCZT-908671883-35904</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B5974D0-2361-4CE6-B9AD-4CE36453E49E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B5974D0-2361-4CE6-B9AD-4CE36453E49E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCCABC4A-815C-4475-B87A-BB4093716891}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCCABC4A-815C-4475-B87A-BB4093716891}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>